--- a/Results_ConservativeComparison/ConservativeComparison_LeftAndRight.xlsx
+++ b/Results_ConservativeComparison/ConservativeComparison_LeftAndRight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RE2022\RE2022 Supplementary Materials\Results_ConservativeComparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\Hierarchical-Safety-Assessment\Results_ConservativeComparison\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,10 +27,7 @@
     <t>Configuration B</t>
   </si>
   <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <t>20_100000000_250_20_20_3000</t>
+    <t>Comparison Results</t>
   </si>
   <si>
     <t>0.625_100000000_250_20_20_3000</t>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>20_100000000_250_20_20_24000</t>
+  </si>
+  <si>
+    <t>20_100000000_250_20_20_3000</t>
   </si>
   <si>
     <t>20_100000000_250_20_20_375.0</t>
@@ -606,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1831"/>
+  <dimension ref="A1:H1831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G3"/>
+      <selection activeCell="G1" sqref="G1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,14 +624,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -644,14 +644,14 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -664,14 +664,14 @@
       <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -682,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -696,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -710,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -724,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -738,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -752,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -766,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -783,7 +783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -797,7 +797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -811,7 +811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -839,7 +839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -962,7 +962,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1074,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1200,7 +1200,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -1214,7 +1214,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1242,7 +1242,7 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -1256,7 +1256,7 @@
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -1270,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1298,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -1312,7 +1312,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -1368,7 +1368,7 @@
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1410,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -1438,7 +1438,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -1522,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -1578,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -1592,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1788,7 +1788,7 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -2026,7 +2026,7 @@
         <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -2040,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2054,7 +2054,7 @@
         <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -2068,7 +2068,7 @@
         <v>46</v>
       </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -2082,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -2096,7 +2096,7 @@
         <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -2124,7 +2124,7 @@
         <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -2138,7 +2138,7 @@
         <v>51</v>
       </c>
       <c r="D108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -2180,7 +2180,7 @@
         <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -2194,7 +2194,7 @@
         <v>55</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -2236,7 +2236,7 @@
         <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -2264,7 +2264,7 @@
         <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -2278,7 +2278,7 @@
         <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -2334,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -2362,7 +2362,7 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -2376,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -2404,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -2600,7 +2600,7 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
@@ -2712,7 +2712,7 @@
         <v>34</v>
       </c>
       <c r="D149" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
@@ -2838,7 +2838,7 @@
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -2852,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -2866,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
@@ -2880,7 +2880,7 @@
         <v>46</v>
       </c>
       <c r="D161" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
@@ -2894,7 +2894,7 @@
         <v>47</v>
       </c>
       <c r="D162" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
@@ -2908,7 +2908,7 @@
         <v>48</v>
       </c>
       <c r="D163" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -2936,7 +2936,7 @@
         <v>50</v>
       </c>
       <c r="D165" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
@@ -2950,7 +2950,7 @@
         <v>51</v>
       </c>
       <c r="D166" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -2992,7 +2992,7 @@
         <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -3006,7 +3006,7 @@
         <v>55</v>
       </c>
       <c r="D170" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>58</v>
       </c>
       <c r="D173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
@@ -3076,7 +3076,7 @@
         <v>60</v>
       </c>
       <c r="D175" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
@@ -3090,7 +3090,7 @@
         <v>61</v>
       </c>
       <c r="D176" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -3146,7 +3146,7 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -3160,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -3188,7 +3188,7 @@
         <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
@@ -3202,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -3510,7 +3510,7 @@
         <v>34</v>
       </c>
       <c r="D206" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -3636,7 +3636,7 @@
         <v>43</v>
       </c>
       <c r="D215" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -3650,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="D216" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
@@ -3664,7 +3664,7 @@
         <v>45</v>
       </c>
       <c r="D217" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -3678,7 +3678,7 @@
         <v>46</v>
       </c>
       <c r="D218" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
@@ -3692,7 +3692,7 @@
         <v>47</v>
       </c>
       <c r="D219" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
@@ -3706,7 +3706,7 @@
         <v>48</v>
       </c>
       <c r="D220" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -3734,7 +3734,7 @@
         <v>50</v>
       </c>
       <c r="D222" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -3748,7 +3748,7 @@
         <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -3790,7 +3790,7 @@
         <v>54</v>
       </c>
       <c r="D226" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
@@ -3804,7 +3804,7 @@
         <v>55</v>
       </c>
       <c r="D227" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
@@ -3846,7 +3846,7 @@
         <v>58</v>
       </c>
       <c r="D230" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -3874,7 +3874,7 @@
         <v>60</v>
       </c>
       <c r="D232" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
@@ -3888,7 +3888,7 @@
         <v>61</v>
       </c>
       <c r="D233" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
@@ -3930,7 +3930,7 @@
         <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -3944,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
@@ -3958,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="D238" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
@@ -3972,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="D239" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -4182,7 +4182,7 @@
         <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -4294,7 +4294,7 @@
         <v>34</v>
       </c>
       <c r="D262" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
@@ -4420,7 +4420,7 @@
         <v>43</v>
       </c>
       <c r="D271" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
@@ -4434,7 +4434,7 @@
         <v>44</v>
       </c>
       <c r="D272" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
@@ -4448,7 +4448,7 @@
         <v>45</v>
       </c>
       <c r="D273" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
@@ -4462,7 +4462,7 @@
         <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
@@ -4476,7 +4476,7 @@
         <v>47</v>
       </c>
       <c r="D275" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
@@ -4490,7 +4490,7 @@
         <v>48</v>
       </c>
       <c r="D276" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -4518,7 +4518,7 @@
         <v>50</v>
       </c>
       <c r="D278" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -4532,7 +4532,7 @@
         <v>51</v>
       </c>
       <c r="D279" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -4574,7 +4574,7 @@
         <v>54</v>
       </c>
       <c r="D282" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
@@ -4588,7 +4588,7 @@
         <v>55</v>
       </c>
       <c r="D283" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -4630,7 +4630,7 @@
         <v>58</v>
       </c>
       <c r="D286" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
@@ -4658,7 +4658,7 @@
         <v>60</v>
       </c>
       <c r="D288" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
@@ -4672,7 +4672,7 @@
         <v>61</v>
       </c>
       <c r="D289" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
@@ -4714,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
@@ -4728,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="D293" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
@@ -4742,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
@@ -4756,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="D295" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
@@ -4952,7 +4952,7 @@
         <v>26</v>
       </c>
       <c r="D309" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
@@ -5064,7 +5064,7 @@
         <v>34</v>
       </c>
       <c r="D317" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
@@ -5190,7 +5190,7 @@
         <v>43</v>
       </c>
       <c r="D326" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
@@ -5204,7 +5204,7 @@
         <v>44</v>
       </c>
       <c r="D327" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
@@ -5218,7 +5218,7 @@
         <v>45</v>
       </c>
       <c r="D328" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
@@ -5232,7 +5232,7 @@
         <v>46</v>
       </c>
       <c r="D329" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
@@ -5246,7 +5246,7 @@
         <v>47</v>
       </c>
       <c r="D330" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
@@ -5260,7 +5260,7 @@
         <v>48</v>
       </c>
       <c r="D331" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
@@ -5288,7 +5288,7 @@
         <v>50</v>
       </c>
       <c r="D333" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
@@ -5302,7 +5302,7 @@
         <v>51</v>
       </c>
       <c r="D334" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
@@ -5344,7 +5344,7 @@
         <v>54</v>
       </c>
       <c r="D337" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="D338" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
@@ -5400,7 +5400,7 @@
         <v>58</v>
       </c>
       <c r="D341" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
@@ -5428,7 +5428,7 @@
         <v>60</v>
       </c>
       <c r="D343" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
@@ -5442,7 +5442,7 @@
         <v>61</v>
       </c>
       <c r="D344" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
@@ -5484,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="D347" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
@@ -5498,7 +5498,7 @@
         <v>11</v>
       </c>
       <c r="D348" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
@@ -5512,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="D349" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
@@ -5708,7 +5708,7 @@
         <v>26</v>
       </c>
       <c r="D363" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
@@ -5820,7 +5820,7 @@
         <v>34</v>
       </c>
       <c r="D371" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
@@ -5946,7 +5946,7 @@
         <v>43</v>
       </c>
       <c r="D380" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
@@ -5960,7 +5960,7 @@
         <v>44</v>
       </c>
       <c r="D381" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
@@ -5974,7 +5974,7 @@
         <v>45</v>
       </c>
       <c r="D382" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
@@ -5988,7 +5988,7 @@
         <v>46</v>
       </c>
       <c r="D383" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
@@ -6002,7 +6002,7 @@
         <v>47</v>
       </c>
       <c r="D384" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
@@ -6016,7 +6016,7 @@
         <v>48</v>
       </c>
       <c r="D385" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
@@ -6044,7 +6044,7 @@
         <v>50</v>
       </c>
       <c r="D387" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
@@ -6058,7 +6058,7 @@
         <v>51</v>
       </c>
       <c r="D388" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
@@ -6100,7 +6100,7 @@
         <v>54</v>
       </c>
       <c r="D391" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
@@ -6114,7 +6114,7 @@
         <v>55</v>
       </c>
       <c r="D392" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
@@ -6156,7 +6156,7 @@
         <v>58</v>
       </c>
       <c r="D395" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
@@ -6184,7 +6184,7 @@
         <v>60</v>
       </c>
       <c r="D397" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
@@ -6198,7 +6198,7 @@
         <v>61</v>
       </c>
       <c r="D398" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
@@ -6240,7 +6240,7 @@
         <v>11</v>
       </c>
       <c r="D401" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
@@ -6254,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="D402" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
@@ -6450,7 +6450,7 @@
         <v>26</v>
       </c>
       <c r="D416" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
@@ -6562,7 +6562,7 @@
         <v>34</v>
       </c>
       <c r="D424" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
@@ -6688,7 +6688,7 @@
         <v>43</v>
       </c>
       <c r="D433" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
@@ -6702,7 +6702,7 @@
         <v>44</v>
       </c>
       <c r="D434" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
@@ -6716,7 +6716,7 @@
         <v>45</v>
       </c>
       <c r="D435" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
@@ -6730,7 +6730,7 @@
         <v>46</v>
       </c>
       <c r="D436" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
@@ -6744,7 +6744,7 @@
         <v>47</v>
       </c>
       <c r="D437" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
@@ -6758,7 +6758,7 @@
         <v>48</v>
       </c>
       <c r="D438" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
@@ -6786,7 +6786,7 @@
         <v>50</v>
       </c>
       <c r="D440" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
@@ -6800,7 +6800,7 @@
         <v>51</v>
       </c>
       <c r="D441" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
@@ -6842,7 +6842,7 @@
         <v>54</v>
       </c>
       <c r="D444" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
@@ -6856,7 +6856,7 @@
         <v>55</v>
       </c>
       <c r="D445" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
@@ -6898,7 +6898,7 @@
         <v>58</v>
       </c>
       <c r="D448" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
@@ -6926,7 +6926,7 @@
         <v>60</v>
       </c>
       <c r="D450" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
@@ -6940,7 +6940,7 @@
         <v>61</v>
       </c>
       <c r="D451" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
@@ -6982,7 +6982,7 @@
         <v>12</v>
       </c>
       <c r="D454" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
@@ -7178,7 +7178,7 @@
         <v>26</v>
       </c>
       <c r="D468" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
@@ -7290,7 +7290,7 @@
         <v>34</v>
       </c>
       <c r="D476" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
@@ -7416,7 +7416,7 @@
         <v>43</v>
       </c>
       <c r="D485" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.15">
@@ -7430,7 +7430,7 @@
         <v>44</v>
       </c>
       <c r="D486" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.15">
@@ -7444,7 +7444,7 @@
         <v>45</v>
       </c>
       <c r="D487" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.15">
@@ -7458,7 +7458,7 @@
         <v>46</v>
       </c>
       <c r="D488" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.15">
@@ -7472,7 +7472,7 @@
         <v>47</v>
       </c>
       <c r="D489" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.15">
@@ -7486,7 +7486,7 @@
         <v>48</v>
       </c>
       <c r="D490" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.15">
@@ -7514,7 +7514,7 @@
         <v>50</v>
       </c>
       <c r="D492" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.15">
@@ -7528,7 +7528,7 @@
         <v>51</v>
       </c>
       <c r="D493" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.15">
@@ -7570,7 +7570,7 @@
         <v>54</v>
       </c>
       <c r="D496" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.15">
@@ -7584,7 +7584,7 @@
         <v>55</v>
       </c>
       <c r="D497" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.15">
@@ -7626,7 +7626,7 @@
         <v>58</v>
       </c>
       <c r="D500" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.15">
@@ -7654,7 +7654,7 @@
         <v>60</v>
       </c>
       <c r="D502" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.15">
@@ -7668,7 +7668,7 @@
         <v>61</v>
       </c>
       <c r="D503" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.15">
@@ -8004,7 +8004,7 @@
         <v>34</v>
       </c>
       <c r="D527" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.15">
@@ -8130,7 +8130,7 @@
         <v>43</v>
       </c>
       <c r="D536" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.15">
@@ -8144,7 +8144,7 @@
         <v>44</v>
       </c>
       <c r="D537" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.15">
@@ -8158,7 +8158,7 @@
         <v>45</v>
       </c>
       <c r="D538" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.15">
@@ -8172,7 +8172,7 @@
         <v>46</v>
       </c>
       <c r="D539" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.15">
@@ -8186,7 +8186,7 @@
         <v>47</v>
       </c>
       <c r="D540" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.15">
@@ -8200,7 +8200,7 @@
         <v>48</v>
       </c>
       <c r="D541" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.15">
@@ -8228,7 +8228,7 @@
         <v>50</v>
       </c>
       <c r="D543" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.15">
@@ -8242,7 +8242,7 @@
         <v>51</v>
       </c>
       <c r="D544" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.15">
@@ -8284,7 +8284,7 @@
         <v>54</v>
       </c>
       <c r="D547" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.15">
@@ -8298,7 +8298,7 @@
         <v>55</v>
       </c>
       <c r="D548" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.15">
@@ -8340,7 +8340,7 @@
         <v>58</v>
       </c>
       <c r="D551" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.15">
@@ -8368,7 +8368,7 @@
         <v>60</v>
       </c>
       <c r="D553" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.15">
@@ -8382,7 +8382,7 @@
         <v>61</v>
       </c>
       <c r="D554" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.15">
@@ -12624,7 +12624,7 @@
         <v>35</v>
       </c>
       <c r="D857" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.15">
@@ -13226,7 +13226,7 @@
         <v>35</v>
       </c>
       <c r="D900" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.15">
@@ -16656,7 +16656,7 @@
         <v>43</v>
       </c>
       <c r="D1145" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.15">
@@ -16670,7 +16670,7 @@
         <v>44</v>
       </c>
       <c r="D1146" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.15">
@@ -16684,7 +16684,7 @@
         <v>45</v>
       </c>
       <c r="D1147" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.15">
@@ -16698,7 +16698,7 @@
         <v>46</v>
       </c>
       <c r="D1148" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.15">
@@ -16712,7 +16712,7 @@
         <v>47</v>
       </c>
       <c r="D1149" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.15">
@@ -16726,7 +16726,7 @@
         <v>48</v>
       </c>
       <c r="D1150" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.15">
@@ -16754,7 +16754,7 @@
         <v>50</v>
       </c>
       <c r="D1152" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.15">
@@ -16768,7 +16768,7 @@
         <v>51</v>
       </c>
       <c r="D1153" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.15">
@@ -16810,7 +16810,7 @@
         <v>54</v>
       </c>
       <c r="D1156" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.15">
@@ -16824,7 +16824,7 @@
         <v>55</v>
       </c>
       <c r="D1157" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.15">
@@ -16866,7 +16866,7 @@
         <v>58</v>
       </c>
       <c r="D1160" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.15">
@@ -16908,7 +16908,7 @@
         <v>61</v>
       </c>
       <c r="D1163" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.15">
@@ -20296,7 +20296,7 @@
         <v>43</v>
       </c>
       <c r="D1405" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1406" spans="1:4" x14ac:dyDescent="0.15">
@@ -20310,7 +20310,7 @@
         <v>44</v>
       </c>
       <c r="D1406" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1407" spans="1:4" x14ac:dyDescent="0.15">
@@ -20324,7 +20324,7 @@
         <v>45</v>
       </c>
       <c r="D1407" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1408" spans="1:4" x14ac:dyDescent="0.15">
@@ -20338,7 +20338,7 @@
         <v>46</v>
       </c>
       <c r="D1408" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1409" spans="1:4" x14ac:dyDescent="0.15">
@@ -20352,7 +20352,7 @@
         <v>47</v>
       </c>
       <c r="D1409" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1410" spans="1:4" x14ac:dyDescent="0.15">
@@ -20366,7 +20366,7 @@
         <v>48</v>
       </c>
       <c r="D1410" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1411" spans="1:4" x14ac:dyDescent="0.15">
@@ -20394,7 +20394,7 @@
         <v>50</v>
       </c>
       <c r="D1412" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.15">
@@ -20408,7 +20408,7 @@
         <v>51</v>
       </c>
       <c r="D1413" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1414" spans="1:4" x14ac:dyDescent="0.15">
@@ -20450,7 +20450,7 @@
         <v>54</v>
       </c>
       <c r="D1416" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1417" spans="1:4" x14ac:dyDescent="0.15">
@@ -20464,7 +20464,7 @@
         <v>55</v>
       </c>
       <c r="D1417" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1418" spans="1:4" x14ac:dyDescent="0.15">
@@ -20506,7 +20506,7 @@
         <v>58</v>
       </c>
       <c r="D1420" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1421" spans="1:4" x14ac:dyDescent="0.15">
@@ -20548,7 +20548,7 @@
         <v>61</v>
       </c>
       <c r="D1423" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1424" spans="1:4" x14ac:dyDescent="0.15">
@@ -23334,7 +23334,7 @@
         <v>44</v>
       </c>
       <c r="D1622" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1623" spans="1:4" x14ac:dyDescent="0.15">
@@ -23348,7 +23348,7 @@
         <v>45</v>
       </c>
       <c r="D1623" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1624" spans="1:4" x14ac:dyDescent="0.15">
@@ -23362,7 +23362,7 @@
         <v>46</v>
       </c>
       <c r="D1624" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1625" spans="1:4" x14ac:dyDescent="0.15">
@@ -23376,7 +23376,7 @@
         <v>47</v>
       </c>
       <c r="D1625" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1626" spans="1:4" x14ac:dyDescent="0.15">
@@ -23390,7 +23390,7 @@
         <v>48</v>
       </c>
       <c r="D1626" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1627" spans="1:4" x14ac:dyDescent="0.15">
@@ -23418,7 +23418,7 @@
         <v>50</v>
       </c>
       <c r="D1628" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1629" spans="1:4" x14ac:dyDescent="0.15">
@@ -23432,7 +23432,7 @@
         <v>51</v>
       </c>
       <c r="D1629" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1630" spans="1:4" x14ac:dyDescent="0.15">
@@ -23474,7 +23474,7 @@
         <v>54</v>
       </c>
       <c r="D1632" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1633" spans="1:4" x14ac:dyDescent="0.15">
@@ -23488,7 +23488,7 @@
         <v>55</v>
       </c>
       <c r="D1633" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1634" spans="1:4" x14ac:dyDescent="0.15">
@@ -23530,7 +23530,7 @@
         <v>58</v>
       </c>
       <c r="D1636" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1637" spans="1:4" x14ac:dyDescent="0.15">
@@ -23558,7 +23558,7 @@
         <v>60</v>
       </c>
       <c r="D1638" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1639" spans="1:4" x14ac:dyDescent="0.15">
@@ -23572,7 +23572,7 @@
         <v>61</v>
       </c>
       <c r="D1639" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1640" spans="1:4" x14ac:dyDescent="0.15">
@@ -23614,7 +23614,7 @@
         <v>45</v>
       </c>
       <c r="D1642" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1643" spans="1:4" x14ac:dyDescent="0.15">
@@ -23628,7 +23628,7 @@
         <v>46</v>
       </c>
       <c r="D1643" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1644" spans="1:4" x14ac:dyDescent="0.15">
@@ -23642,7 +23642,7 @@
         <v>47</v>
       </c>
       <c r="D1644" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1645" spans="1:4" x14ac:dyDescent="0.15">
@@ -23656,7 +23656,7 @@
         <v>48</v>
       </c>
       <c r="D1645" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1646" spans="1:4" x14ac:dyDescent="0.15">
@@ -23684,7 +23684,7 @@
         <v>50</v>
       </c>
       <c r="D1647" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1648" spans="1:4" x14ac:dyDescent="0.15">
@@ -23698,7 +23698,7 @@
         <v>51</v>
       </c>
       <c r="D1648" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1649" spans="1:4" x14ac:dyDescent="0.15">
@@ -23740,7 +23740,7 @@
         <v>54</v>
       </c>
       <c r="D1651" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.15">
@@ -23754,7 +23754,7 @@
         <v>55</v>
       </c>
       <c r="D1652" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1653" spans="1:4" x14ac:dyDescent="0.15">
@@ -23796,7 +23796,7 @@
         <v>58</v>
       </c>
       <c r="D1655" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1656" spans="1:4" x14ac:dyDescent="0.15">
@@ -23824,7 +23824,7 @@
         <v>60</v>
       </c>
       <c r="D1657" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1658" spans="1:4" x14ac:dyDescent="0.15">
@@ -23838,7 +23838,7 @@
         <v>61</v>
       </c>
       <c r="D1658" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1659" spans="1:4" x14ac:dyDescent="0.15">
@@ -23880,7 +23880,7 @@
         <v>46</v>
       </c>
       <c r="D1661" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1662" spans="1:4" x14ac:dyDescent="0.15">
@@ -23894,7 +23894,7 @@
         <v>47</v>
       </c>
       <c r="D1662" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1663" spans="1:4" x14ac:dyDescent="0.15">
@@ -23908,7 +23908,7 @@
         <v>48</v>
       </c>
       <c r="D1663" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.15">
@@ -23936,7 +23936,7 @@
         <v>50</v>
       </c>
       <c r="D1665" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1666" spans="1:4" x14ac:dyDescent="0.15">
@@ -23950,7 +23950,7 @@
         <v>51</v>
       </c>
       <c r="D1666" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.15">
@@ -23992,7 +23992,7 @@
         <v>54</v>
       </c>
       <c r="D1669" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.15">
@@ -24006,7 +24006,7 @@
         <v>55</v>
       </c>
       <c r="D1670" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.15">
@@ -24048,7 +24048,7 @@
         <v>58</v>
       </c>
       <c r="D1673" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1674" spans="1:4" x14ac:dyDescent="0.15">
@@ -24076,7 +24076,7 @@
         <v>60</v>
       </c>
       <c r="D1675" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1676" spans="1:4" x14ac:dyDescent="0.15">
@@ -24090,7 +24090,7 @@
         <v>61</v>
       </c>
       <c r="D1676" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1677" spans="1:4" x14ac:dyDescent="0.15">
@@ -24132,7 +24132,7 @@
         <v>47</v>
       </c>
       <c r="D1679" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.15">
@@ -24146,7 +24146,7 @@
         <v>48</v>
       </c>
       <c r="D1680" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.15">
@@ -24174,7 +24174,7 @@
         <v>50</v>
       </c>
       <c r="D1682" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.15">
@@ -24188,7 +24188,7 @@
         <v>51</v>
       </c>
       <c r="D1683" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.15">
@@ -24230,7 +24230,7 @@
         <v>54</v>
       </c>
       <c r="D1686" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.15">
@@ -24244,7 +24244,7 @@
         <v>55</v>
       </c>
       <c r="D1687" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.15">
@@ -24286,7 +24286,7 @@
         <v>58</v>
       </c>
       <c r="D1690" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.15">
@@ -24314,7 +24314,7 @@
         <v>60</v>
       </c>
       <c r="D1692" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1693" spans="1:4" x14ac:dyDescent="0.15">
@@ -24328,7 +24328,7 @@
         <v>61</v>
       </c>
       <c r="D1693" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1694" spans="1:4" x14ac:dyDescent="0.15">
@@ -24370,7 +24370,7 @@
         <v>48</v>
       </c>
       <c r="D1696" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1697" spans="1:4" x14ac:dyDescent="0.15">
@@ -24398,7 +24398,7 @@
         <v>50</v>
       </c>
       <c r="D1698" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.15">
@@ -24412,7 +24412,7 @@
         <v>51</v>
       </c>
       <c r="D1699" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.15">
@@ -24454,7 +24454,7 @@
         <v>54</v>
       </c>
       <c r="D1702" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.15">
@@ -24468,7 +24468,7 @@
         <v>55</v>
       </c>
       <c r="D1703" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.15">
@@ -24510,7 +24510,7 @@
         <v>58</v>
       </c>
       <c r="D1706" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1707" spans="1:4" x14ac:dyDescent="0.15">
@@ -24538,7 +24538,7 @@
         <v>60</v>
       </c>
       <c r="D1708" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.15">
@@ -24552,7 +24552,7 @@
         <v>61</v>
       </c>
       <c r="D1709" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.15">
@@ -24608,7 +24608,7 @@
         <v>50</v>
       </c>
       <c r="D1713" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.15">
@@ -24622,7 +24622,7 @@
         <v>51</v>
       </c>
       <c r="D1714" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.15">
@@ -24664,7 +24664,7 @@
         <v>54</v>
       </c>
       <c r="D1717" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1718" spans="1:4" x14ac:dyDescent="0.15">
@@ -24678,7 +24678,7 @@
         <v>55</v>
       </c>
       <c r="D1718" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1719" spans="1:4" x14ac:dyDescent="0.15">
@@ -24720,7 +24720,7 @@
         <v>58</v>
       </c>
       <c r="D1721" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1722" spans="1:4" x14ac:dyDescent="0.15">
@@ -24748,7 +24748,7 @@
         <v>60</v>
       </c>
       <c r="D1723" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.15">
@@ -24762,7 +24762,7 @@
         <v>61</v>
       </c>
       <c r="D1724" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.15">
@@ -25000,7 +25000,7 @@
         <v>51</v>
       </c>
       <c r="D1741" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.15">
@@ -25042,7 +25042,7 @@
         <v>54</v>
       </c>
       <c r="D1744" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.15">
@@ -25056,7 +25056,7 @@
         <v>55</v>
       </c>
       <c r="D1745" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.15">
@@ -25098,7 +25098,7 @@
         <v>58</v>
       </c>
       <c r="D1748" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.15">
@@ -25126,7 +25126,7 @@
         <v>60</v>
       </c>
       <c r="D1750" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.15">
@@ -25140,7 +25140,7 @@
         <v>61</v>
       </c>
       <c r="D1751" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1752" spans="1:4" x14ac:dyDescent="0.15">
@@ -25210,7 +25210,7 @@
         <v>54</v>
       </c>
       <c r="D1756" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.15">
@@ -25224,7 +25224,7 @@
         <v>55</v>
       </c>
       <c r="D1757" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.15">
@@ -25266,7 +25266,7 @@
         <v>58</v>
       </c>
       <c r="D1760" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.15">
@@ -25294,7 +25294,7 @@
         <v>60</v>
       </c>
       <c r="D1762" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1763" spans="1:4" x14ac:dyDescent="0.15">
@@ -25308,7 +25308,7 @@
         <v>61</v>
       </c>
       <c r="D1763" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1764" spans="1:4" x14ac:dyDescent="0.15">
@@ -25644,7 +25644,7 @@
         <v>55</v>
       </c>
       <c r="D1787" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.15">
@@ -25686,7 +25686,7 @@
         <v>58</v>
       </c>
       <c r="D1790" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.15">
@@ -25714,7 +25714,7 @@
         <v>60</v>
       </c>
       <c r="D1792" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1793" spans="1:4" x14ac:dyDescent="0.15">
@@ -25728,7 +25728,7 @@
         <v>61</v>
       </c>
       <c r="D1793" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1794" spans="1:4" x14ac:dyDescent="0.15">
@@ -25798,7 +25798,7 @@
         <v>58</v>
       </c>
       <c r="D1798" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.15">
@@ -25826,7 +25826,7 @@
         <v>60</v>
       </c>
       <c r="D1800" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1801" spans="1:4" x14ac:dyDescent="0.15">
@@ -25840,7 +25840,7 @@
         <v>61</v>
       </c>
       <c r="D1801" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1802" spans="1:4" x14ac:dyDescent="0.15">
@@ -26078,7 +26078,7 @@
         <v>60</v>
       </c>
       <c r="D1818" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1819" spans="1:4" x14ac:dyDescent="0.15">
@@ -26092,7 +26092,7 @@
         <v>61</v>
       </c>
       <c r="D1819" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.15">
@@ -26190,7 +26190,7 @@
         <v>61</v>
       </c>
       <c r="D1826" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1827" spans="1:4" x14ac:dyDescent="0.15">
